--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/EmpleadoLista.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/EmpleadoLista.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\LogicTracker\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="14115" windowHeight="5700"/>
   </bookViews>
@@ -15,14 +10,15 @@
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$7:$H$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$7:$I$7</definedName>
     <definedName name="LEGAJO">Informe!$A$7</definedName>
     <definedName name="NAME">Informe!$C$7</definedName>
-    <definedName name="PARENTI01">Informe!$F$7</definedName>
-    <definedName name="PARENTI02">Informe!$G$7</definedName>
+    <definedName name="PARENTI01">Informe!$G$7</definedName>
+    <definedName name="PARENTI02">Informe!$H$7</definedName>
     <definedName name="PARENTI03">Informe!$D$7</definedName>
-    <definedName name="PARENTI07">Informe!$E$7</definedName>
-    <definedName name="PARENTI15">Informe!$H$7</definedName>
+    <definedName name="PARENTI07">Informe!$F$7</definedName>
+    <definedName name="PARENTI08">Informe!$E$7</definedName>
+    <definedName name="PARENTI15">Informe!$I$7</definedName>
     <definedName name="TARJETA">Informe!$B$7</definedName>
     <definedName name="Titulo">Informe!$C$1</definedName>
   </definedNames>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Funciones</t>
   </si>
@@ -58,6 +54,9 @@
   </si>
   <si>
     <t>Categoría</t>
+  </si>
+  <si>
+    <t>Dispositivo</t>
   </si>
 </sst>
 </file>
@@ -598,48 +597,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,7 +708,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -751,7 +750,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,7 +785,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -998,71 +997,71 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L196"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G4" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1070,8 +1069,9 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>1</v>
       </c>
@@ -1085,19 +1085,22 @@
         <v>4</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1106,573 +1109,575 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E196" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F115" s="3"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:H7"/>
+  <autoFilter ref="A7:I7"/>
   <pageMargins left="0.11811023622047244" right="0.11811023622047244" top="0.11811023622047244" bottom="0.11811023622047244" header="0" footer="0"/>
   <pageSetup scale="17" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
